--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Ccr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.829419455083557</v>
+        <v>1.333368333333333</v>
       </c>
       <c r="H2">
-        <v>0.829419455083557</v>
+        <v>4.000105</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06860853772263389</v>
+        <v>0.06930366666666667</v>
       </c>
       <c r="N2">
-        <v>0.06860853772263389</v>
+        <v>0.207911</v>
       </c>
       <c r="O2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="P2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844379559408913</v>
       </c>
       <c r="Q2">
-        <v>0.05690525597198667</v>
+        <v>0.09240731451722223</v>
       </c>
       <c r="R2">
-        <v>0.05690525597198667</v>
+        <v>0.831665830655</v>
       </c>
       <c r="S2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844138843618826</v>
       </c>
       <c r="T2">
-        <v>0.0002676987190607325</v>
+        <v>0.0001844379559408913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.829419455083557</v>
+        <v>1.333368333333333</v>
       </c>
       <c r="H3">
-        <v>0.829419455083557</v>
+        <v>4.000105</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>94.3348072251292</v>
+        <v>0.311428</v>
       </c>
       <c r="N3">
-        <v>94.3348072251292</v>
+        <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.3680781998167726</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="P3">
-        <v>0.3680781998167726</v>
+        <v>0.000828803821001677</v>
       </c>
       <c r="Q3">
-        <v>78.24312440407905</v>
+        <v>0.4152482333133334</v>
       </c>
       <c r="R3">
-        <v>78.24312440407905</v>
+        <v>3.737234099820001</v>
       </c>
       <c r="S3">
-        <v>0.3680781998167726</v>
+        <v>0.000828695651202472</v>
       </c>
       <c r="T3">
-        <v>0.3680781998167726</v>
+        <v>0.000828803821001677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.829419455083557</v>
+        <v>1.333368333333333</v>
       </c>
       <c r="H4">
-        <v>0.829419455083557</v>
+        <v>4.000105</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.750825565473</v>
+        <v>168.931335</v>
       </c>
       <c r="N4">
-        <v>161.750825565473</v>
+        <v>506.794005</v>
       </c>
       <c r="O4">
-        <v>0.6311239132649276</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="P4">
-        <v>0.6311239132649276</v>
+        <v>0.4495772247033483</v>
       </c>
       <c r="Q4">
-        <v>134.1592815998301</v>
+        <v>225.247692596725</v>
       </c>
       <c r="R4">
-        <v>134.1592815998301</v>
+        <v>2027.229233370525</v>
       </c>
       <c r="S4">
-        <v>0.6311239132649276</v>
+        <v>0.4495185489626108</v>
       </c>
       <c r="T4">
-        <v>0.6311239132649276</v>
+        <v>0.4495772247033483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.829419455083557</v>
+        <v>1.333368333333333</v>
       </c>
       <c r="H5">
-        <v>0.829419455083557</v>
+        <v>4.000105</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +738,96 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.135881998969694</v>
+        <v>206.345828</v>
       </c>
       <c r="N5">
-        <v>0.135881998969694</v>
+        <v>619.0374839999999</v>
       </c>
       <c r="O5">
-        <v>0.0005301881992392126</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="P5">
-        <v>0.0005301881992392126</v>
+        <v>0.5491484731435671</v>
       </c>
       <c r="Q5">
-        <v>0.112703173541108</v>
+        <v>275.1349927706467</v>
       </c>
       <c r="R5">
-        <v>0.112703173541108</v>
+        <v>2476.21493493582</v>
       </c>
       <c r="S5">
-        <v>0.0005301881992392126</v>
+        <v>0.5490768020453307</v>
       </c>
       <c r="T5">
-        <v>0.0005301881992392126</v>
+        <v>0.5491484731435671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.333368333333333</v>
+      </c>
+      <c r="H6">
+        <v>4.000105</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1471425</v>
+      </c>
+      <c r="N6">
+        <v>0.294285</v>
+      </c>
+      <c r="O6">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="P6">
+        <v>0.000261060376142028</v>
+      </c>
+      <c r="Q6">
+        <v>0.1961951499875</v>
+      </c>
+      <c r="R6">
+        <v>1.177170899925</v>
+      </c>
+      <c r="S6">
+        <v>0.0003915394564941487</v>
+      </c>
+      <c r="T6">
+        <v>0.000261060376142028</v>
       </c>
     </row>
   </sheetData>
